--- a/QAlegend/src/main/resources/TestData.xlsx
+++ b/QAlegend/src/main/resources/TestData.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aswathy\Workspace\QaLegend\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\QALegend\QAlegend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B599F0B-864E-4F61-8E92-40BF036985D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F76E20-3D7D-4DFA-AA47-C7537B642C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6354474-DDE8-40C4-9A15-4505DE7CE4F6}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{D6354474-DDE8-40C4-9A15-4505DE7CE4F6}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="ForgotPassword" sheetId="2" r:id="rId2"/>
+    <sheet name="ResetPage" sheetId="2" r:id="rId2"/>
+    <sheet name="HomePage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>admin</t>
   </si>
@@ -42,15 +43,26 @@
   <si>
     <t>We can't find a user with that e-mail address.</t>
   </si>
+  <si>
+    <t>https://qalegend.com/billing/public/home</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -73,13 +85,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,7 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F2BE2E-0915-466B-AF05-5C2F05D4E23F}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -432,7 +447,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,4 +473,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81AF106-10E1-4D43-8086-D026AB738160}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{443FC8EE-BCC5-4DB8-BE08-A9AAA811597D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>